--- a/techniqo/data_new_ticker/AMBER.xlsx
+++ b/techniqo/data_new_ticker/AMBER.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G646"/>
+  <dimension ref="A1:G648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23036,6 +23036,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B647" t="n">
+        <v>1980</v>
+      </c>
+      <c r="C647" t="n">
+        <v>2113.9</v>
+      </c>
+      <c r="D647" t="n">
+        <v>1973.8</v>
+      </c>
+      <c r="E647" t="n">
+        <v>2065.1</v>
+      </c>
+      <c r="F647" t="n">
+        <v>1137928</v>
+      </c>
+      <c r="G647" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
+        <v>2040</v>
+      </c>
+      <c r="C648" t="n">
+        <v>2055</v>
+      </c>
+      <c r="D648" t="n">
+        <v>1988.95</v>
+      </c>
+      <c r="E648" t="n">
+        <v>2018.35</v>
+      </c>
+      <c r="F648" t="n">
+        <v>306724</v>
+      </c>
+      <c r="G648" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/AMBER.xlsx
+++ b/techniqo/data_new_ticker/AMBER.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G648"/>
+  <dimension ref="A1:G650"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23086,6 +23086,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B649" t="n">
+        <v>2005</v>
+      </c>
+      <c r="C649" t="n">
+        <v>2036.8</v>
+      </c>
+      <c r="D649" t="n">
+        <v>1963.35</v>
+      </c>
+      <c r="E649" t="n">
+        <v>1978.15</v>
+      </c>
+      <c r="F649" t="n">
+        <v>175928</v>
+      </c>
+      <c r="G649" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B650" t="n">
+        <v>1970</v>
+      </c>
+      <c r="C650" t="n">
+        <v>2057.75</v>
+      </c>
+      <c r="D650" t="n">
+        <v>1969.95</v>
+      </c>
+      <c r="E650" t="n">
+        <v>2037.85</v>
+      </c>
+      <c r="F650" t="n">
+        <v>604479</v>
+      </c>
+      <c r="G650" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
